--- a/Jogos_do_Dia/2023-01-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.23</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
         <v>1.02</v>
@@ -653,10 +653,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="N2" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -680,10 +680,10 @@
         <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>1.73</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -766,7 +766,7 @@
         <v>1.9</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -790,10 +790,10 @@
         <v>1.41</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
         <v>1.46</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
         <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.76</v>
+        <v>2.55</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -900,10 +900,10 @@
         <v>1.45</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>1.67</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.99</v>
+        <v>4.35</v>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="I5" t="n">
         <v>1.01</v>
@@ -983,10 +983,10 @@
         <v>3.48</v>
       </c>
       <c r="M5" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="N5" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="O5" t="n">
         <v>1.37</v>
@@ -1010,10 +1010,10 @@
         <v>1.15</v>
       </c>
       <c r="V5" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="W5" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
         <v>1.44</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
-        <v>4.85</v>
+        <v>3.85</v>
       </c>
       <c r="I6" t="n">
         <v>1.03</v>
@@ -1093,10 +1093,10 @@
         <v>3.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="N6" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1120,10 +1120,10 @@
         <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X6" t="n">
         <v>1.68</v>
@@ -1230,10 +1230,10 @@
         <v>2.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="X7" t="n">
         <v>1.91</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>2.13</v>
+        <v>1.99</v>
       </c>
       <c r="N8" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1340,10 +1340,10 @@
         <v>1.28</v>
       </c>
       <c r="V8" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>1.13</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.81</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,10 +1423,10 @@
         <v>3.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="N9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1450,10 +1450,10 @@
         <v>1.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W9" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
         <v>1.58</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1533,10 +1533,10 @@
         <v>3.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="N10" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1560,10 +1560,10 @@
         <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="X10" t="n">
         <v>1.46</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="G11" t="n">
         <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>4.05</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1646,7 +1646,7 @@
         <v>1.74</v>
       </c>
       <c r="N11" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -1670,10 +1670,10 @@
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
         <v>1.72</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1753,10 +1753,10 @@
         <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="N12" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -1780,10 +1780,10 @@
         <v>1.23</v>
       </c>
       <c r="V12" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="X12" t="n">
         <v>1.54</v>
@@ -1804,7 +1804,7 @@
         <v>1.55</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE12" t="n">
         <v>1.29</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="G13" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="I13" t="n">
         <v>1.1</v>
@@ -1857,16 +1857,16 @@
         <v>6.5</v>
       </c>
       <c r="K13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="M13" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -1890,10 +1890,10 @@
         <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="W13" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X13" t="n">
         <v>1.4</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="G14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="I14" t="n">
         <v>1.04</v>
@@ -1973,10 +1973,10 @@
         <v>3.8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="N14" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2000,10 +2000,10 @@
         <v>1.97</v>
       </c>
       <c r="V14" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="W14" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="X14" t="n">
         <v>1.85</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="G15" t="n">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
         <v>1.03</v>
@@ -2083,10 +2083,10 @@
         <v>5.17</v>
       </c>
       <c r="M15" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="N15" t="n">
-        <v>2.37</v>
+        <v>2.19</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
@@ -2110,7 +2110,7 @@
         <v>1.82</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="n">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="I16" t="n">
         <v>1.04</v>
@@ -2193,10 +2193,10 @@
         <v>4.22</v>
       </c>
       <c r="M16" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="N16" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -2220,10 +2220,10 @@
         <v>1.33</v>
       </c>
       <c r="V16" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X16" t="n">
         <v>1.68</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.76</v>
+        <v>2.89</v>
       </c>
       <c r="I17" t="n">
         <v>1.05</v>
@@ -2303,10 +2303,10 @@
         <v>3.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="N17" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -2330,10 +2330,10 @@
         <v>1.58</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="W17" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
         <v>1.78</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="G18" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>4.65</v>
+        <v>4.05</v>
       </c>
       <c r="I18" t="n">
         <v>1.02</v>
@@ -2413,10 +2413,10 @@
         <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="N18" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -2440,10 +2440,10 @@
         <v>2.05</v>
       </c>
       <c r="V18" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
         <v>2.11</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
-        <v>2.31</v>
+        <v>2.09</v>
       </c>
       <c r="I19" t="n">
         <v>1.03</v>
@@ -2523,10 +2523,10 @@
         <v>4.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="N19" t="n">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
@@ -2550,10 +2550,10 @@
         <v>1.49</v>
       </c>
       <c r="V19" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="W19" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
         <v>2.65</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
         <v>1.1</v>
@@ -2633,10 +2633,10 @@
         <v>2.48</v>
       </c>
       <c r="M20" t="n">
-        <v>2.35</v>
+        <v>2.49</v>
       </c>
       <c r="N20" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="O20" t="n">
         <v>1.53</v>
@@ -2660,10 +2660,10 @@
         <v>1.68</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="X20" t="n">
         <v>1.72</v>
@@ -2722,58 +2722,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="W21" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="X21" t="n">
         <v>1.85</v>
@@ -2785,28 +2785,28 @@
         <v>3.02</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="22">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.01</v>
+        <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>2.91</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="N22" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -2880,10 +2880,10 @@
         <v>1.62</v>
       </c>
       <c r="V22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="X22" t="n">
         <v>1.55</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H23" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="I23" t="n">
         <v>1.04</v>
@@ -2963,10 +2963,10 @@
         <v>4.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="N23" t="n">
-        <v>2.15</v>
+        <v>1.99</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -2990,10 +2990,10 @@
         <v>1.57</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X23" t="n">
         <v>1.59</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="G24" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="H24" t="n">
-        <v>15</v>
+        <v>16.2</v>
       </c>
       <c r="I24" t="n">
         <v>1.01</v>
@@ -3073,10 +3073,10 @@
         <v>6.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -3100,10 +3100,10 @@
         <v>4.75</v>
       </c>
       <c r="V24" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W24" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="X24" t="n">
         <v>2.22</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="I25" t="n">
         <v>1.07</v>
@@ -3183,10 +3183,10 @@
         <v>2.87</v>
       </c>
       <c r="M25" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O25" t="n">
         <v>1.47</v>
@@ -3210,10 +3210,10 @@
         <v>1.38</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="X25" t="n">
         <v>1.82</v>
@@ -3234,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE25" t="n">
         <v>1.32</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.45</v>
+        <v>2.61</v>
       </c>
       <c r="I26" t="n">
         <v>1.05</v>
@@ -3293,10 +3293,10 @@
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N26" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
@@ -3320,10 +3320,10 @@
         <v>1.49</v>
       </c>
       <c r="V26" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="W26" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X26" t="n">
         <v>1.86</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
       <c r="G27" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="H27" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="I27" t="n">
         <v>1.02</v>
@@ -3403,10 +3403,10 @@
         <v>4.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="N27" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -3430,10 +3430,10 @@
         <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="W27" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X27" t="n">
         <v>1.37</v>
@@ -3466,7 +3466,7 @@
         <v>3.45</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="28">
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H28" t="n">
-        <v>9.75</v>
+        <v>7.2</v>
       </c>
       <c r="I28" t="n">
         <v>1.01</v>
@@ -3513,10 +3513,10 @@
         <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="O28" t="n">
         <v>1.2</v>
@@ -3540,10 +3540,10 @@
         <v>3.2</v>
       </c>
       <c r="V28" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="W28" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="X28" t="n">
         <v>1.63</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H29" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="I29" t="n">
         <v>1.05</v>
@@ -3623,10 +3623,10 @@
         <v>3.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="N29" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O29" t="n">
         <v>1.34</v>
@@ -3650,10 +3650,10 @@
         <v>1.18</v>
       </c>
       <c r="V29" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="W29" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="X29" t="n">
         <v>1.15</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I30" t="n">
         <v>1.03</v>
@@ -3733,10 +3733,10 @@
         <v>4.2</v>
       </c>
       <c r="M30" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="N30" t="n">
-        <v>2.17</v>
+        <v>2.31</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -3760,10 +3760,10 @@
         <v>1.75</v>
       </c>
       <c r="V30" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W30" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="X30" t="n">
         <v>1.81</v>
@@ -3775,13 +3775,13 @@
         <v>3.59</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AD30" t="n">
         <v>1.18</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="I31" t="n">
         <v>1.1</v>
@@ -3837,16 +3837,16 @@
         <v>7</v>
       </c>
       <c r="K31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="N31" t="n">
         <v>1.5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.53</v>
       </c>
       <c r="O31" t="n">
         <v>1.57</v>
@@ -3906,7 +3906,7 @@
         <v>3.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="32">
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.52</v>
+        <v>3.69</v>
       </c>
       <c r="G32" t="n">
-        <v>3.13</v>
+        <v>2.83</v>
       </c>
       <c r="H32" t="n">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="I32" t="n">
         <v>1.11</v>
@@ -3953,7 +3953,7 @@
         <v>2.5</v>
       </c>
       <c r="M32" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N32" t="n">
         <v>1.5</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
       <c r="H33" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="I33" t="n">
         <v>1.06</v>
@@ -4063,10 +4063,10 @@
         <v>3.2</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="N33" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.45</v>
+        <v>2.59</v>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="H34" t="n">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="I34" t="n">
         <v>1.08</v>
@@ -4167,16 +4167,16 @@
         <v>6.2</v>
       </c>
       <c r="K34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L34" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M34" t="n">
-        <v>2.82</v>
+        <v>2.73</v>
       </c>
       <c r="N34" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="O34" t="n">
         <v>1.55</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="G35" t="n">
-        <v>2.73</v>
+        <v>2.93</v>
       </c>
       <c r="H35" t="n">
-        <v>3.65</v>
+        <v>4.12</v>
       </c>
       <c r="I35" t="n">
         <v>1.12</v>
@@ -4277,16 +4277,16 @@
         <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="L35" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M35" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="N35" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="O35" t="n">
         <v>1.64</v>
@@ -4375,10 +4375,10 @@
         <v>3.4</v>
       </c>
       <c r="G36" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="I36" t="n">
         <v>1.07</v>
@@ -4393,10 +4393,10 @@
         <v>2.85</v>
       </c>
       <c r="M36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N36" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O36" t="n">
         <v>1.5</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="G37" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="I37" t="n">
         <v>1.1</v>
@@ -4503,10 +4503,10 @@
         <v>2.68</v>
       </c>
       <c r="M37" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N37" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="O37" t="n">
         <v>1.55</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="G38" t="n">
-        <v>3.8</v>
+        <v>4.01</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="I38" t="n">
         <v>1.02</v>
@@ -4613,10 +4613,10 @@
         <v>4.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="N38" t="n">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="O38" t="n">
         <v>1.29</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="I39" t="n">
         <v>1.04</v>
@@ -4723,7 +4723,7 @@
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="N39" t="n">
         <v>2.1</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>3.21</v>
       </c>
       <c r="H40" t="n">
-        <v>2.98</v>
+        <v>3.34</v>
       </c>
       <c r="I40" t="n">
         <v>1.08</v>
@@ -4833,10 +4833,10 @@
         <v>2.75</v>
       </c>
       <c r="M40" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="N40" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="O40" t="n">
         <v>1.49</v>
@@ -4884,7 +4884,7 @@
         <v>3.07</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE40" t="n">
         <v>1.27</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.3</v>
+        <v>2.64</v>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>3.37</v>
       </c>
       <c r="H41" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I41" t="n">
         <v>1.07</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="G42" t="n">
-        <v>5.7</v>
+        <v>5.56</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>7.94</v>
       </c>
       <c r="I42" t="n">
         <v>1.01</v>
@@ -5056,7 +5056,7 @@
         <v>1.57</v>
       </c>
       <c r="N42" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O42" t="n">
         <v>1.25</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G43" t="n">
-        <v>4.13</v>
+        <v>5.19</v>
       </c>
       <c r="H43" t="n">
-        <v>5.88</v>
+        <v>7.75</v>
       </c>
       <c r="I43" t="n">
         <v>1.04</v>
@@ -5163,10 +5163,10 @@
         <v>4.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="N43" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
@@ -5255,49 +5255,49 @@
         <v>2.3</v>
       </c>
       <c r="G44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="N44" t="n">
         <v>1.95</v>
       </c>
-      <c r="N44" t="n">
-        <v>1.85</v>
-      </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V44" t="n">
         <v>1.13</v>
@@ -5315,28 +5315,28 @@
         <v>3.18</v>
       </c>
       <c r="AA44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AE44" t="n">
         <v>1.85</v>
       </c>
-      <c r="AB44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="45">
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.53</v>
+        <v>2.71</v>
       </c>
       <c r="G45" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="I45" t="n">
         <v>1.02</v>
@@ -5383,10 +5383,10 @@
         <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="N45" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="O45" t="n">
         <v>1.29</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="G46" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H46" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
         <v>1.04</v>
@@ -5493,7 +5493,7 @@
         <v>4.15</v>
       </c>
       <c r="M46" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N46" t="n">
         <v>2.05</v>
@@ -5585,10 +5585,10 @@
         <v>4.35</v>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="I47" t="n">
         <v>1.04</v>
@@ -5603,10 +5603,10 @@
         <v>3.4</v>
       </c>
       <c r="M47" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="N47" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="O47" t="n">
         <v>1.4</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="G48" t="n">
-        <v>4.3</v>
+        <v>4.82</v>
       </c>
       <c r="H48" t="n">
-        <v>6.5</v>
+        <v>7.24</v>
       </c>
       <c r="I48" t="n">
         <v>1.03</v>
@@ -5713,10 +5713,10 @@
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="N48" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O48" t="n">
         <v>1.31</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="G49" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="H49" t="n">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
         <v>1.14</v>
@@ -5817,16 +5817,16 @@
         <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="L49" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M49" t="n">
-        <v>2.75</v>
+        <v>3.21</v>
       </c>
       <c r="N49" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="O49" t="n">
         <v>1.66</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="G50" t="n">
-        <v>6.35</v>
+        <v>6.5</v>
       </c>
       <c r="H50" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I50" t="n">
         <v>1.03</v>
@@ -5933,10 +5933,10 @@
         <v>4.33</v>
       </c>
       <c r="M50" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="N50" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O50" t="n">
         <v>1.28</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.63</v>
       </c>
       <c r="I51" t="n">
         <v>1.12</v>
@@ -6043,10 +6043,10 @@
         <v>2.43</v>
       </c>
       <c r="M51" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="N51" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O51" t="n">
         <v>1.62</v>
@@ -6106,7 +6106,7 @@
         <v>3.3</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="52">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="G52" t="n">
-        <v>2.97</v>
+        <v>3.17</v>
       </c>
       <c r="H52" t="n">
-        <v>3.05</v>
+        <v>3.52</v>
       </c>
       <c r="I52" t="n">
         <v>1.08</v>
@@ -6153,7 +6153,7 @@
         <v>2.8</v>
       </c>
       <c r="M52" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N52" t="n">
         <v>1.57</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7.36</v>
+        <v>6.97</v>
       </c>
       <c r="G53" t="n">
-        <v>4.02</v>
+        <v>4.55</v>
       </c>
       <c r="H53" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="I53" t="n">
         <v>1.03</v>
@@ -6263,10 +6263,10 @@
         <v>4.2</v>
       </c>
       <c r="M53" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="N53" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="O53" t="n">
         <v>1.33</v>
@@ -6326,7 +6326,7 @@
         <v>3.1</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="54">
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.4</v>
+        <v>3.82</v>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="H54" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
         <v>1.04</v>
@@ -6373,7 +6373,7 @@
         <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N54" t="n">
         <v>1.67</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
       <c r="G55" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="H55" t="n">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -6483,10 +6483,10 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="N55" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="G56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3.3</v>
       </c>
       <c r="I56" t="n">
         <v>1.06</v>
@@ -6593,10 +6593,10 @@
         <v>3.4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="N56" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="O56" t="n">
         <v>1.4</v>
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.35</v>
+        <v>3.43</v>
       </c>
       <c r="G57" t="n">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="H57" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="I57" t="n">
         <v>1.06</v>
@@ -6703,10 +6703,10 @@
         <v>3.47</v>
       </c>
       <c r="M57" t="n">
-        <v>2.13</v>
+        <v>2.02</v>
       </c>
       <c r="N57" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="O57" t="n">
         <v>1.4</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.23</v>
+        <v>2.34</v>
       </c>
       <c r="G58" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="H58" t="n">
-        <v>3.15</v>
+        <v>3.71</v>
       </c>
       <c r="I58" t="n">
         <v>1.11</v>
@@ -6813,10 +6813,10 @@
         <v>2.5</v>
       </c>
       <c r="M58" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="N58" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="O58" t="n">
         <v>1.54</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.76</v>
+        <v>2.87</v>
       </c>
       <c r="G59" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I59" t="n">
         <v>1.05</v>
@@ -6923,10 +6923,10 @@
         <v>3.82</v>
       </c>
       <c r="M59" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="N59" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O59" t="n">
         <v>1.36</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="G60" t="n">
-        <v>2.95</v>
+        <v>3.28</v>
       </c>
       <c r="H60" t="n">
-        <v>3.55</v>
+        <v>3.71</v>
       </c>
       <c r="I60" t="n">
         <v>1.08</v>
@@ -7033,10 +7033,10 @@
         <v>2.75</v>
       </c>
       <c r="M60" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N60" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O60" t="n">
         <v>1.49</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="H61" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I61" t="n">
         <v>1.01</v>
@@ -7143,10 +7143,10 @@
         <v>3.54</v>
       </c>
       <c r="M61" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N61" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="G62" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="H62" t="n">
-        <v>4.7</v>
+        <v>4.68</v>
       </c>
       <c r="I62" t="n">
         <v>1.05</v>
@@ -7253,10 +7253,10 @@
         <v>3.25</v>
       </c>
       <c r="M62" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O62" t="n">
         <v>1.44</v>
